--- a/main/StructureDefinition-MeinePlanetExtension.xlsx
+++ b/main/StructureDefinition-MeinePlanetExtension.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T08:26:21+00:00</t>
+    <t>2026-02-10T10:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
